--- a/Dataforexpreiment/图/5不同轮数的柱状图的吞吐量.xlsx
+++ b/Dataforexpreiment/图/5不同轮数的柱状图的吞吐量.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>交易大小</t>
   </si>
   <si>
     <t>交易轮数</t>
-  </si>
-  <si>
-    <t>δ</t>
   </si>
   <si>
     <t>Δ</t>
@@ -987,7 +984,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1007,29 +1004,27 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1039,9 +1034,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="2">
         <v>100</v>
       </c>
@@ -1071,9 +1064,7 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2">
         <v>100</v>
       </c>
@@ -1103,9 +1094,7 @@
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="2">
         <v>100</v>
       </c>
@@ -1135,9 +1124,7 @@
       <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="2">
         <v>100</v>
       </c>
@@ -1162,35 +1149,23 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2"/>
-      <c r="B6"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
-      <c r="E6"/>
-      <c r="F6"/>
       <c r="G6" s="4"/>
-      <c r="H6"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2"/>
-      <c r="B7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
-      <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" s="4"/>
-      <c r="H7"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2"/>
-      <c r="B8"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
-      <c r="E8"/>
-      <c r="F8"/>
       <c r="G8" s="4"/>
-      <c r="H8"/>
       <c r="I8" s="4"/>
     </row>
   </sheetData>
